--- a/Krijin Table 1.xlsx
+++ b/Krijin Table 1.xlsx
@@ -1,30 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87a2cc0ad6eaf759/Documents/ENGR301/Krijin Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2BB1D69C5BA0512F8F192E1159DC107473F3E762" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F95117-8F6A-470B-85A3-C1060FB1E14A}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_2BB1D69C5BA0512F8F192E1159DC107473F3E762" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1401636A-3D07-42E8-9806-D6D74FA101BD}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2562" yWindow="2562" windowWidth="15552" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Material</t>
   </si>
   <si>
+    <t>Ev</t>
+  </si>
+  <si>
+    <t>Ec</t>
+  </si>
+  <si>
+    <t>GaAs</t>
+  </si>
+  <si>
+    <t>InAs</t>
+  </si>
+  <si>
+    <t>ε_parallel</t>
+  </si>
+  <si>
+    <t>ε_perpendicular</t>
+  </si>
+  <si>
+    <t>InSb</t>
+  </si>
+  <si>
+    <t>GaSb</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -37,56 +74,193 @@
     <t>c₄₄</t>
   </si>
   <si>
-    <t xml:space="preserve">Ev, av </t>
-  </si>
-  <si>
-    <t>Δ0</t>
-  </si>
-  <si>
-    <t>Eg(Γ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eg(X) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eg(L) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">av </t>
-  </si>
-  <si>
-    <t>ac(Γ)</t>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v, av</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Γ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(X) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(L) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Γ)</t>
+    </r>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>Ev</t>
-  </si>
-  <si>
-    <t>Ec</t>
-  </si>
-  <si>
-    <t>GaP</t>
-  </si>
-  <si>
-    <t>GaAs</t>
-  </si>
-  <si>
-    <t>InP</t>
-  </si>
-  <si>
-    <t>InAs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +273,32 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,15 +336,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,280 +659,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="16.8" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B2">
-        <v>5.4509999999999996</v>
+        <v>5.6529999999999996</v>
       </c>
       <c r="C2">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="D2">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="F2">
-        <v>-7.4</v>
+        <v>-6.92</v>
       </c>
       <c r="G2">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="H2">
-        <v>2.74</v>
+        <v>1.42</v>
       </c>
       <c r="I2">
-        <v>2.2599999999999998</v>
+        <v>1.91</v>
       </c>
       <c r="J2">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="K2">
-        <v>1.7</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L2">
-        <v>-7.14</v>
+        <v>-7.17</v>
       </c>
       <c r="M2">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="N2">
         <v>-4.5999999999999996</v>
       </c>
       <c r="O2">
-        <v>-6.8194588616224054</v>
+        <v>7.8365469662126319E-2</v>
       </c>
       <c r="P2">
-        <v>-5.246864014801111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>-7.1724328165336027E-2</v>
+      </c>
+      <c r="Q2">
+        <v>-6.2827675563665721</v>
+      </c>
+      <c r="R2">
+        <v>-5.9961640686760989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>5.6529999999999996</v>
+        <v>6.0579999999999998</v>
       </c>
       <c r="C3">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="D3">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="E3">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="F3">
-        <v>-6.92</v>
+        <v>-6.67</v>
       </c>
       <c r="G3">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="H3">
-        <v>1.42</v>
+        <v>0.36</v>
       </c>
       <c r="I3">
-        <v>1.91</v>
+        <v>1.37</v>
       </c>
       <c r="J3">
-        <v>1.73</v>
+        <v>1.07</v>
       </c>
       <c r="K3">
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>-7.17</v>
+        <v>-5.08</v>
       </c>
       <c r="M3">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="N3">
-        <v>-4.5999999999999996</v>
+        <v>-3.6</v>
       </c>
       <c r="O3">
-        <v>-6.5750517777927886</v>
+        <v>6.2726972598217126E-3</v>
       </c>
       <c r="P3">
-        <v>-5.6838482441701368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>-6.8017199202885506E-3</v>
+      </c>
+      <c r="Q3">
+        <v>-6.511329147727773</v>
+      </c>
+      <c r="R3">
+        <v>-6.2125112002980556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>5.8689999999999998</v>
+        <v>6.4790000000000001</v>
       </c>
       <c r="C4">
-        <v>1.02</v>
+        <v>0.66</v>
       </c>
       <c r="D4">
-        <v>0.57999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="E4">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
-        <v>-7.04</v>
+        <v>-6.09</v>
       </c>
       <c r="G4">
-        <v>0.11</v>
+        <v>0.81</v>
       </c>
       <c r="H4">
-        <v>1.35</v>
+        <v>0.17</v>
       </c>
       <c r="I4">
-        <v>2.21</v>
+        <v>1.63</v>
       </c>
       <c r="J4">
-        <v>2.0499999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="K4">
-        <v>1.27</v>
+        <v>0.36</v>
       </c>
       <c r="L4">
-        <v>-5.04</v>
+        <v>-6.17</v>
       </c>
       <c r="M4">
-        <v>-1.6</v>
+        <v>-2.1</v>
       </c>
       <c r="N4">
-        <v>-4.2</v>
-      </c>
-      <c r="O4">
-        <v>-7.003333333333333</v>
-      </c>
-      <c r="P4">
-        <v>-5.6533333333333324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>-5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1E-99</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1E-99</v>
+      </c>
+      <c r="Q4">
+        <v>-5.9766666666666666</v>
+      </c>
+      <c r="R4">
+        <v>-5.2566666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>6.0579999999999998</v>
+        <v>6.0960000000000001</v>
       </c>
       <c r="C5">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="D5">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="F5">
-        <v>-6.67</v>
+        <v>-6.25</v>
       </c>
       <c r="G5">
-        <v>0.38</v>
+        <v>0.82</v>
       </c>
       <c r="H5">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="I5">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="J5">
-        <v>1.07</v>
+        <v>0.76</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="L5">
-        <v>-5.08</v>
+        <v>-6.85</v>
       </c>
       <c r="M5">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="N5">
-        <v>-3.6</v>
+        <v>-4.8</v>
       </c>
       <c r="O5">
-        <v>-6.4548501168755577</v>
+        <v>-5.9114060811853657E-2</v>
       </c>
       <c r="P5">
-        <v>-6.038211837114055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>6.4488066340203876E-2</v>
+      </c>
+      <c r="Q5">
+        <v>-5.5797819528827404</v>
+      </c>
+      <c r="R5">
+        <v>-5.3184238589007844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>